--- a/Beschreibung.xlsx
+++ b/Beschreibung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\Documents\GitHub\Kafka-Memes-auf-TikTok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362FF511-24F4-4256-89CC-6CCFFAD2E254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7CC855-98B4-4AFE-ADF5-47ED4787CECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{167FD852-219E-4D8E-8213-2BE66488903D}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{167FD852-219E-4D8E-8213-2BE66488903D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +333,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,13 +365,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -384,7 +391,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -494,13 +501,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB34B668-290C-4DAE-AAF5-CDBAB86A7B3E}" name="Tabelle1" displayName="Tabelle1" ref="A2:D34" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB34B668-290C-4DAE-AAF5-CDBAB86A7B3E}" name="Tabelle1" displayName="Tabelle1" ref="A2:D34" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:D34" xr:uid="{AB34B668-290C-4DAE-AAF5-CDBAB86A7B3E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2279F189-31F6-4D7B-A805-41651045CBC2}" name="TikTok" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{89EDBBF2-6377-4D51-9213-E3709CB451E3}" name="NutzerIn" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{121B767E-218D-4CB4-ABD0-2E3BB774BB22}" name="Beschreibung" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B90009C3-82B7-48AD-83FE-B3DC3E6DD734}" name="Link" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{2279F189-31F6-4D7B-A805-41651045CBC2}" name="TikTok" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{89EDBBF2-6377-4D51-9213-E3709CB451E3}" name="NutzerIn" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{121B767E-218D-4CB4-ABD0-2E3BB774BB22}" name="Beschreibung" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B90009C3-82B7-48AD-83FE-B3DC3E6DD734}" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -823,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB99B9-2FEA-46A6-AA6A-5F5A8D08F9DB}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A2:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,495 +844,478 @@
     <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>86</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{870266AE-7DB9-483A-AD04-5B67B5889FDA}"/>
     <hyperlink ref="C11" r:id="rId2" display="https://www.tiktok.com/tag/kafka" xr:uid="{FF2B09A3-F1AF-4C1E-89DA-A74AEAB238B3}"/>
+    <hyperlink ref="D34" r:id="rId3" xr:uid="{F866C77E-8B4F-454B-9854-DBFD5D96F1A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>